--- a/Invoice/COM1020924.xlsx
+++ b/Invoice/COM1020924.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\SEG\docs\Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBCF07F-0CAA-4617-8932-2049916C92E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{C091C1FB-A1D0-6244-8E00-B94A6F2CD182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -914,26 +914,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1406,32 +1406,32 @@
   </sheetPr>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" topLeftCell="E74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75:E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="106.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.609375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="106.67578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="4" max="4" width="23.9453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.39453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21.7890625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="40.48828125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.01171875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.01171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E1" s="4"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E2" s="4"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="104.25" customHeight="1">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -1443,11 +1443,11 @@
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="34.5" customHeight="1">
+    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
@@ -1463,88 +1463,88 @@
         <v>45360</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="51" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="50" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="51" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="53" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="53"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="51" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="52" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1553,7 +1553,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="34" t="s">
         <v>72</v>
       </c>
@@ -1585,17 +1585,15 @@
         <v>1</v>
       </c>
       <c r="E15" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F15" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F15" s="49"/>
       <c r="G15" s="19">
         <f>(E15)-(E15*F15)*(D15)</f>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="34" t="s">
         <v>73</v>
       </c>
@@ -1606,17 +1604,15 @@
         <v>1</v>
       </c>
       <c r="E16" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F16" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F16" s="49"/>
       <c r="G16" s="19">
         <f t="shared" ref="G16:G79" si="0">(E16)-(E16*F16)*(D16)</f>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="34" t="s">
         <v>74</v>
       </c>
@@ -1627,17 +1623,15 @@
         <v>1</v>
       </c>
       <c r="E17" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F17" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F17" s="49"/>
       <c r="G17" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B18" s="34" t="s">
         <v>75</v>
       </c>
@@ -1648,17 +1642,15 @@
         <v>1</v>
       </c>
       <c r="E18" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F18" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F18" s="49"/>
       <c r="G18" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="34" t="s">
         <v>76</v>
       </c>
@@ -1669,17 +1661,15 @@
         <v>1</v>
       </c>
       <c r="E19" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F19" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F19" s="49"/>
       <c r="G19" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="13.5" customHeight="1">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="34" t="s">
         <v>77</v>
       </c>
@@ -1690,17 +1680,15 @@
         <v>1</v>
       </c>
       <c r="E20" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F20" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F20" s="49"/>
       <c r="G20" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="34" t="s">
         <v>78</v>
       </c>
@@ -1711,17 +1699,15 @@
         <v>1</v>
       </c>
       <c r="E21" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F21" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F21" s="49"/>
       <c r="G21" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="34" t="s">
         <v>79</v>
       </c>
@@ -1732,17 +1718,15 @@
         <v>1</v>
       </c>
       <c r="E22" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F22" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F22" s="49"/>
       <c r="G22" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="34" t="s">
         <v>80</v>
       </c>
@@ -1753,17 +1737,15 @@
         <v>1</v>
       </c>
       <c r="E23" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F23" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F23" s="49"/>
       <c r="G23" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="34" t="s">
         <v>81</v>
       </c>
@@ -1774,17 +1756,15 @@
         <v>1</v>
       </c>
       <c r="E24" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F24" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F24" s="49"/>
       <c r="G24" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="16.5" customHeight="1">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="34" t="s">
         <v>82</v>
       </c>
@@ -1795,17 +1775,15 @@
         <v>1</v>
       </c>
       <c r="E25" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F25" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F25" s="49"/>
       <c r="G25" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="34" t="s">
         <v>83</v>
       </c>
@@ -1816,17 +1794,15 @@
         <v>1</v>
       </c>
       <c r="E26" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F26" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F26" s="49"/>
       <c r="G26" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="34" t="s">
         <v>84</v>
       </c>
@@ -1837,17 +1813,15 @@
         <v>1</v>
       </c>
       <c r="E27" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F27" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F27" s="49"/>
       <c r="G27" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="34" t="s">
         <v>27</v>
       </c>
@@ -1858,17 +1832,15 @@
         <v>1</v>
       </c>
       <c r="E28" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F28" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F28" s="49"/>
       <c r="G28" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="34" t="s">
         <v>26</v>
       </c>
@@ -1879,17 +1851,15 @@
         <v>1</v>
       </c>
       <c r="E29" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F29" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F29" s="49"/>
       <c r="G29" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="34" t="s">
         <v>25</v>
       </c>
@@ -1900,17 +1870,15 @@
         <v>1</v>
       </c>
       <c r="E30" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F30" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F30" s="49"/>
       <c r="G30" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="34" t="s">
         <v>85</v>
       </c>
@@ -1921,17 +1889,15 @@
         <v>1</v>
       </c>
       <c r="E31" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F31" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F31" s="49"/>
       <c r="G31" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="34" t="s">
         <v>86</v>
       </c>
@@ -1942,17 +1908,15 @@
         <v>1</v>
       </c>
       <c r="E32" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F32" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F32" s="49"/>
       <c r="G32" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="34" t="s">
         <v>87</v>
       </c>
@@ -1963,17 +1927,15 @@
         <v>1</v>
       </c>
       <c r="E33" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F33" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F33" s="49"/>
       <c r="G33" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="34" t="s">
         <v>88</v>
       </c>
@@ -1984,17 +1946,15 @@
         <v>1</v>
       </c>
       <c r="E34" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F34" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F34" s="49"/>
       <c r="G34" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="34" t="s">
         <v>30</v>
       </c>
@@ -2005,17 +1965,15 @@
         <v>1</v>
       </c>
       <c r="E35" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F35" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F35" s="49"/>
       <c r="G35" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="34" t="s">
         <v>29</v>
       </c>
@@ -2026,17 +1984,15 @@
         <v>1</v>
       </c>
       <c r="E36" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F36" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F36" s="49"/>
       <c r="G36" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="34" t="s">
         <v>28</v>
       </c>
@@ -2047,17 +2003,15 @@
         <v>1</v>
       </c>
       <c r="E37" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F37" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F37" s="49"/>
       <c r="G37" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="34" t="s">
         <v>89</v>
       </c>
@@ -2068,17 +2022,15 @@
         <v>1</v>
       </c>
       <c r="E38" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F38" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F38" s="49"/>
       <c r="G38" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="34" t="s">
         <v>90</v>
       </c>
@@ -2089,17 +2041,15 @@
         <v>1</v>
       </c>
       <c r="E39" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F39" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F39" s="49"/>
       <c r="G39" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="34" t="s">
         <v>91</v>
       </c>
@@ -2110,17 +2060,15 @@
         <v>1</v>
       </c>
       <c r="E40" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F40" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F40" s="49"/>
       <c r="G40" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="34" t="s">
         <v>92</v>
       </c>
@@ -2131,17 +2079,15 @@
         <v>1</v>
       </c>
       <c r="E41" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F41" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F41" s="49"/>
       <c r="G41" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="34" t="s">
         <v>93</v>
       </c>
@@ -2152,17 +2098,15 @@
         <v>1</v>
       </c>
       <c r="E42" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F42" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F42" s="49"/>
       <c r="G42" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="34" t="s">
         <v>94</v>
       </c>
@@ -2173,17 +2117,15 @@
         <v>1</v>
       </c>
       <c r="E43" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F43" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F43" s="49"/>
       <c r="G43" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="34" t="s">
         <v>95</v>
       </c>
@@ -2194,17 +2136,15 @@
         <v>1</v>
       </c>
       <c r="E44" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F44" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F44" s="49"/>
       <c r="G44" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="34" t="s">
         <v>36</v>
       </c>
@@ -2215,17 +2155,15 @@
         <v>1</v>
       </c>
       <c r="E45" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F45" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F45" s="49"/>
       <c r="G45" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="34" t="s">
         <v>96</v>
       </c>
@@ -2236,17 +2174,15 @@
         <v>1</v>
       </c>
       <c r="E46" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F46" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F46" s="49"/>
       <c r="G46" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="34" t="s">
         <v>97</v>
       </c>
@@ -2257,17 +2193,15 @@
         <v>1</v>
       </c>
       <c r="E47" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F47" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F47" s="49"/>
       <c r="G47" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B48" s="34" t="s">
         <v>98</v>
       </c>
@@ -2278,17 +2212,15 @@
         <v>1</v>
       </c>
       <c r="E48" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F48" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F48" s="49"/>
       <c r="G48" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="34" t="s">
         <v>99</v>
       </c>
@@ -2299,17 +2231,15 @@
         <v>1</v>
       </c>
       <c r="E49" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F49" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F49" s="49"/>
       <c r="G49" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="34" t="s">
         <v>100</v>
       </c>
@@ -2320,17 +2250,15 @@
         <v>1</v>
       </c>
       <c r="E50" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F50" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F50" s="49"/>
       <c r="G50" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="34" t="s">
         <v>101</v>
       </c>
@@ -2341,17 +2269,15 @@
         <v>1</v>
       </c>
       <c r="E51" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F51" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F51" s="49"/>
       <c r="G51" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="34" t="s">
         <v>102</v>
       </c>
@@ -2362,17 +2288,15 @@
         <v>1</v>
       </c>
       <c r="E52" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F52" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F52" s="49"/>
       <c r="G52" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="34" t="s">
         <v>103</v>
       </c>
@@ -2383,17 +2307,15 @@
         <v>1</v>
       </c>
       <c r="E53" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F53" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F53" s="49"/>
       <c r="G53" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="34" t="s">
         <v>104</v>
       </c>
@@ -2404,17 +2326,15 @@
         <v>1</v>
       </c>
       <c r="E54" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F54" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F54" s="49"/>
       <c r="G54" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="34" t="s">
         <v>35</v>
       </c>
@@ -2425,17 +2345,15 @@
         <v>1</v>
       </c>
       <c r="E55" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F55" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F55" s="49"/>
       <c r="G55" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="34" t="s">
         <v>34</v>
       </c>
@@ -2446,17 +2364,15 @@
         <v>1</v>
       </c>
       <c r="E56" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F56" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F56" s="49"/>
       <c r="G56" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="34" t="s">
         <v>33</v>
       </c>
@@ -2467,17 +2383,15 @@
         <v>1</v>
       </c>
       <c r="E57" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F57" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F57" s="49"/>
       <c r="G57" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="34" t="s">
         <v>32</v>
       </c>
@@ -2488,17 +2402,15 @@
         <v>1</v>
       </c>
       <c r="E58" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F58" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F58" s="49"/>
       <c r="G58" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="34" t="s">
         <v>105</v>
       </c>
@@ -2509,17 +2421,15 @@
         <v>1</v>
       </c>
       <c r="E59" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F59" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F59" s="49"/>
       <c r="G59" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="34" t="s">
         <v>106</v>
       </c>
@@ -2530,17 +2440,15 @@
         <v>1</v>
       </c>
       <c r="E60" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F60" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F60" s="49"/>
       <c r="G60" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="34" t="s">
         <v>107</v>
       </c>
@@ -2551,17 +2459,15 @@
         <v>1</v>
       </c>
       <c r="E61" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F61" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F61" s="49"/>
       <c r="G61" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="34" t="s">
         <v>31</v>
       </c>
@@ -2572,17 +2478,15 @@
         <v>1</v>
       </c>
       <c r="E62" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F62" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F62" s="49"/>
       <c r="G62" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="34" t="s">
         <v>108</v>
       </c>
@@ -2593,17 +2497,15 @@
         <v>1</v>
       </c>
       <c r="E63" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F63" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F63" s="49"/>
       <c r="G63" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="34" t="s">
         <v>109</v>
       </c>
@@ -2614,17 +2516,15 @@
         <v>1</v>
       </c>
       <c r="E64" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F64" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F64" s="49"/>
       <c r="G64" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="34" t="s">
         <v>41</v>
       </c>
@@ -2635,17 +2535,15 @@
         <v>1</v>
       </c>
       <c r="E65" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F65" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F65" s="49"/>
       <c r="G65" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="34" t="s">
         <v>110</v>
       </c>
@@ -2656,17 +2554,15 @@
         <v>1</v>
       </c>
       <c r="E66" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F66" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F66" s="49"/>
       <c r="G66" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="34" t="s">
         <v>40</v>
       </c>
@@ -2677,17 +2573,15 @@
         <v>1</v>
       </c>
       <c r="E67" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F67" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F67" s="49"/>
       <c r="G67" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="34" t="s">
         <v>39</v>
       </c>
@@ -2698,17 +2592,15 @@
         <v>1</v>
       </c>
       <c r="E68" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F68" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F68" s="49"/>
       <c r="G68" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="34" t="s">
         <v>38</v>
       </c>
@@ -2719,17 +2611,15 @@
         <v>1</v>
       </c>
       <c r="E69" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F69" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F69" s="49"/>
       <c r="G69" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="34" t="s">
         <v>37</v>
       </c>
@@ -2740,17 +2630,15 @@
         <v>1</v>
       </c>
       <c r="E70" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F70" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F70" s="49"/>
       <c r="G70" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="34" t="s">
         <v>111</v>
       </c>
@@ -2761,17 +2649,15 @@
         <v>1</v>
       </c>
       <c r="E71" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F71" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F71" s="49"/>
       <c r="G71" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="34" t="s">
         <v>112</v>
       </c>
@@ -2782,17 +2668,15 @@
         <v>1</v>
       </c>
       <c r="E72" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F72" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F72" s="49"/>
       <c r="G72" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="34" t="s">
         <v>113</v>
       </c>
@@ -2803,17 +2687,15 @@
         <v>1</v>
       </c>
       <c r="E73" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F73" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F73" s="49"/>
       <c r="G73" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="34" t="s">
         <v>114</v>
       </c>
@@ -2824,17 +2706,15 @@
         <v>1</v>
       </c>
       <c r="E74" s="19">
-        <v>88000</v>
-      </c>
-      <c r="F74" s="55">
-        <v>0.2</v>
-      </c>
+        <v>39293</v>
+      </c>
+      <c r="F74" s="49"/>
       <c r="G74" s="19">
         <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7">
+        <v>39293</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="34" t="s">
         <v>51</v>
       </c>
@@ -2845,17 +2725,15 @@
         <v>1</v>
       </c>
       <c r="E75" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F75" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F75" s="49"/>
       <c r="G75" s="19">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="34" t="s">
         <v>50</v>
       </c>
@@ -2866,17 +2744,15 @@
         <v>1</v>
       </c>
       <c r="E76" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F76" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F76" s="49"/>
       <c r="G76" s="19">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B77" s="34" t="s">
         <v>49</v>
       </c>
@@ -2887,17 +2763,15 @@
         <v>1</v>
       </c>
       <c r="E77" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F77" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F77" s="49"/>
       <c r="G77" s="19">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B78" s="34" t="s">
         <v>48</v>
       </c>
@@ -2908,17 +2782,15 @@
         <v>1</v>
       </c>
       <c r="E78" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F78" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F78" s="49"/>
       <c r="G78" s="19">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="34" t="s">
         <v>47</v>
       </c>
@@ -2929,17 +2801,15 @@
         <v>1</v>
       </c>
       <c r="E79" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F79" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F79" s="49"/>
       <c r="G79" s="19">
         <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="34" t="s">
         <v>46</v>
       </c>
@@ -2950,17 +2820,15 @@
         <v>1</v>
       </c>
       <c r="E80" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F80" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F80" s="49"/>
       <c r="G80" s="19">
         <f t="shared" ref="G80:G104" si="1">(E80)-(E80*F80)*(D80)</f>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="34" t="s">
         <v>45</v>
       </c>
@@ -2971,17 +2839,15 @@
         <v>1</v>
       </c>
       <c r="E81" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F81" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F81" s="49"/>
       <c r="G81" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="34" t="s">
         <v>44</v>
       </c>
@@ -2992,17 +2858,15 @@
         <v>1</v>
       </c>
       <c r="E82" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F82" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F82" s="49"/>
       <c r="G82" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="34" t="s">
         <v>43</v>
       </c>
@@ -3013,17 +2877,15 @@
         <v>1</v>
       </c>
       <c r="E83" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F83" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F83" s="49"/>
       <c r="G83" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="34" t="s">
         <v>42</v>
       </c>
@@ -3034,17 +2896,15 @@
         <v>1</v>
       </c>
       <c r="E84" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F84" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F84" s="49"/>
       <c r="G84" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="34" t="s">
         <v>61</v>
       </c>
@@ -3055,17 +2915,15 @@
         <v>1</v>
       </c>
       <c r="E85" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F85" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F85" s="49"/>
       <c r="G85" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="34" t="s">
         <v>60</v>
       </c>
@@ -3076,17 +2934,15 @@
         <v>1</v>
       </c>
       <c r="E86" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F86" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F86" s="49"/>
       <c r="G86" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="34" t="s">
         <v>59</v>
       </c>
@@ -3097,17 +2953,15 @@
         <v>1</v>
       </c>
       <c r="E87" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F87" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F87" s="49"/>
       <c r="G87" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="34" t="s">
         <v>58</v>
       </c>
@@ -3118,17 +2972,15 @@
         <v>1</v>
       </c>
       <c r="E88" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F88" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F88" s="49"/>
       <c r="G88" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="34" t="s">
         <v>57</v>
       </c>
@@ -3139,17 +2991,15 @@
         <v>1</v>
       </c>
       <c r="E89" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F89" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F89" s="49"/>
       <c r="G89" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="34" t="s">
         <v>56</v>
       </c>
@@ -3160,17 +3010,15 @@
         <v>1</v>
       </c>
       <c r="E90" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F90" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F90" s="49"/>
       <c r="G90" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="34" t="s">
         <v>55</v>
       </c>
@@ -3181,17 +3029,15 @@
         <v>1</v>
       </c>
       <c r="E91" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F91" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F91" s="49"/>
       <c r="G91" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="34" t="s">
         <v>54</v>
       </c>
@@ -3202,17 +3048,15 @@
         <v>1</v>
       </c>
       <c r="E92" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F92" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F92" s="49"/>
       <c r="G92" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="34" t="s">
         <v>53</v>
       </c>
@@ -3223,17 +3067,15 @@
         <v>1</v>
       </c>
       <c r="E93" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F93" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F93" s="49"/>
       <c r="G93" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="34" t="s">
         <v>52</v>
       </c>
@@ -3244,17 +3086,15 @@
         <v>1</v>
       </c>
       <c r="E94" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F94" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F94" s="49"/>
       <c r="G94" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="34" t="s">
         <v>71</v>
       </c>
@@ -3265,17 +3105,15 @@
         <v>1</v>
       </c>
       <c r="E95" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F95" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F95" s="49"/>
       <c r="G95" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="34" t="s">
         <v>70</v>
       </c>
@@ -3286,17 +3124,15 @@
         <v>1</v>
       </c>
       <c r="E96" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F96" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F96" s="49"/>
       <c r="G96" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B97" s="34" t="s">
         <v>69</v>
       </c>
@@ -3307,17 +3143,15 @@
         <v>1</v>
       </c>
       <c r="E97" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F97" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F97" s="49"/>
       <c r="G97" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="34" t="s">
         <v>68</v>
       </c>
@@ -3328,17 +3162,15 @@
         <v>1</v>
       </c>
       <c r="E98" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F98" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F98" s="49"/>
       <c r="G98" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="34" t="s">
         <v>67</v>
       </c>
@@ -3349,17 +3181,15 @@
         <v>1</v>
       </c>
       <c r="E99" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F99" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F99" s="49"/>
       <c r="G99" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="34" t="s">
         <v>66</v>
       </c>
@@ -3370,17 +3200,15 @@
         <v>1</v>
       </c>
       <c r="E100" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F100" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F100" s="49"/>
       <c r="G100" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="34" t="s">
         <v>65</v>
       </c>
@@ -3391,17 +3219,15 @@
         <v>1</v>
       </c>
       <c r="E101" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F101" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F101" s="49"/>
       <c r="G101" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="34" t="s">
         <v>64</v>
       </c>
@@ -3412,17 +3238,15 @@
         <v>1</v>
       </c>
       <c r="E102" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F102" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F102" s="49"/>
       <c r="G102" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="34" t="s">
         <v>63</v>
       </c>
@@ -3433,17 +3257,15 @@
         <v>1</v>
       </c>
       <c r="E103" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F103" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F103" s="49"/>
       <c r="G103" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="34" t="s">
         <v>62</v>
       </c>
@@ -3454,17 +3276,15 @@
         <v>1</v>
       </c>
       <c r="E104" s="19">
-        <v>99000</v>
-      </c>
-      <c r="F104" s="55">
-        <v>0.2</v>
-      </c>
+        <v>45105</v>
+      </c>
+      <c r="F104" s="49"/>
       <c r="G104" s="19">
         <f t="shared" si="1"/>
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="35"/>
       <c r="C105" s="36"/>
       <c r="D105" s="36"/>
@@ -3472,7 +3292,7 @@
       <c r="F105" s="38"/>
       <c r="G105" s="37"/>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E106" s="29" t="s">
         <v>17</v>
       </c>
@@ -3483,7 +3303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E107" s="31">
         <f>COUNT(D15:D105)</f>
         <v>90</v>
@@ -3494,10 +3314,10 @@
       </c>
       <c r="G107" s="33">
         <f>SUM(G15:G105)</f>
-        <v>6600000</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7">
+        <v>3710730</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="22"/>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
@@ -3505,36 +3325,36 @@
       <c r="F109" s="23"/>
       <c r="G109" s="24"/>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E110" s="4"/>
       <c r="G110" s="26"/>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="27"/>
       <c r="E111" s="4"/>
       <c r="G111" s="26"/>
     </row>
-    <row r="112" spans="2:7">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E112" s="4"/>
       <c r="G112" s="26"/>
     </row>
-    <row r="113" spans="2:8" ht="32.25" customHeight="1">
+    <row r="113" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="27"/>
       <c r="E113" s="4"/>
       <c r="G113" s="26"/>
     </row>
-    <row r="114" spans="2:8" ht="32.25" customHeight="1">
+    <row r="114" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="27"/>
       <c r="E114" s="4"/>
       <c r="G114" s="26"/>
     </row>
-    <row r="115" spans="2:8">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" s="27" t="s">
         <v>14</v>
       </c>
@@ -3544,12 +3364,12 @@
       <c r="F115" s="21"/>
       <c r="G115" s="26"/>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B116" s="27"/>
       <c r="E116" s="4"/>
       <c r="G116" s="26"/>
     </row>
-    <row r="117" spans="2:8" ht="16.5" customHeight="1">
+    <row r="117" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="54" t="s">
         <v>15</v>
       </c>
@@ -3559,23 +3379,23 @@
       <c r="F117" s="54"/>
       <c r="G117" s="54"/>
     </row>
-    <row r="118" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="121" spans="2:8">
+    <row r="118" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H121"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D10:G12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B117:G117"/>
     <mergeCell ref="D7:G8"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D10:G12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B117:G117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{D1A7B311-42A7-4137-ACCF-9B7E4DB486E9}"/>
@@ -3595,15 +3415,15 @@
       <selection activeCell="C46" sqref="C46:C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.42578125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.28125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.37890625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="20.3125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.58203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>119</v>
       </c>
@@ -3617,7 +3437,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="39">
         <v>1</v>
       </c>
@@ -3643,7 +3463,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" hidden="1">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39">
         <v>2</v>
       </c>
@@ -3669,7 +3489,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="39">
         <v>3</v>
       </c>
@@ -3695,7 +3515,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" hidden="1">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -3721,7 +3541,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -3747,7 +3567,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" hidden="1">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39">
         <v>6</v>
       </c>
@@ -3773,7 +3593,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -3799,7 +3619,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" hidden="1">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39">
         <v>8</v>
       </c>
@@ -3825,7 +3645,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="39">
         <v>9</v>
       </c>
@@ -3851,7 +3671,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" hidden="1">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39">
         <v>10</v>
       </c>
@@ -3877,7 +3697,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="39">
         <v>11</v>
       </c>
@@ -3903,7 +3723,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" hidden="1">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39">
         <v>12</v>
       </c>
@@ -3929,7 +3749,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="39">
         <v>13</v>
       </c>
@@ -3955,7 +3775,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" hidden="1">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39">
         <v>14</v>
       </c>
@@ -3981,7 +3801,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="39">
         <v>15</v>
       </c>
@@ -4007,7 +3827,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" hidden="1">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39">
         <v>16</v>
       </c>
@@ -4033,7 +3853,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="39">
         <v>17</v>
       </c>
@@ -4059,7 +3879,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" hidden="1">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39">
         <v>18</v>
       </c>
@@ -4085,7 +3905,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="39">
         <v>19</v>
       </c>
@@ -4111,7 +3931,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" hidden="1">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39">
         <v>20</v>
       </c>
@@ -4137,7 +3957,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="39">
         <v>21</v>
       </c>
@@ -4163,7 +3983,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" hidden="1">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39">
         <v>22</v>
       </c>
@@ -4189,7 +4009,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="39">
         <v>23</v>
       </c>
@@ -4215,7 +4035,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" hidden="1">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39">
         <v>24</v>
       </c>
@@ -4241,7 +4061,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="39">
         <v>25</v>
       </c>
@@ -4267,7 +4087,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" hidden="1">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39">
         <v>26</v>
       </c>
@@ -4293,7 +4113,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="39">
         <v>27</v>
       </c>
@@ -4319,7 +4139,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" hidden="1">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39">
         <v>28</v>
       </c>
@@ -4345,7 +4165,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="39">
         <v>29</v>
       </c>
@@ -4371,7 +4191,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" hidden="1">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39">
         <v>30</v>
       </c>
@@ -4397,7 +4217,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="39">
         <v>31</v>
       </c>
@@ -4423,7 +4243,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" hidden="1">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39">
         <v>32</v>
       </c>
@@ -4449,7 +4269,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="39">
         <v>33</v>
       </c>
@@ -4475,7 +4295,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" hidden="1">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39">
         <v>34</v>
       </c>
@@ -4501,7 +4321,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="39">
         <v>35</v>
       </c>
@@ -4527,7 +4347,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" hidden="1">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39">
         <v>36</v>
       </c>
@@ -4553,7 +4373,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="39">
         <v>37</v>
       </c>
@@ -4579,7 +4399,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" hidden="1">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39">
         <v>38</v>
       </c>
@@ -4605,7 +4425,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="39">
         <v>39</v>
       </c>
@@ -4631,7 +4451,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" hidden="1">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39">
         <v>40</v>
       </c>
@@ -4657,7 +4477,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="39">
         <v>41</v>
       </c>
@@ -4683,7 +4503,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" hidden="1">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39">
         <v>42</v>
       </c>
@@ -4709,7 +4529,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="39">
         <v>43</v>
       </c>
@@ -4735,7 +4555,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" hidden="1">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39">
         <v>44</v>
       </c>
@@ -4761,7 +4581,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="39">
         <v>45</v>
       </c>
@@ -4787,7 +4607,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" hidden="1">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39">
         <v>46</v>
       </c>
@@ -4813,7 +4633,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="39">
         <v>47</v>
       </c>
@@ -4839,7 +4659,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" hidden="1">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39">
         <v>48</v>
       </c>
@@ -4865,7 +4685,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="39">
         <v>49</v>
       </c>
@@ -4891,7 +4711,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" hidden="1">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39">
         <v>50</v>
       </c>
@@ -4917,7 +4737,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="39">
         <v>51</v>
       </c>
@@ -4943,7 +4763,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" hidden="1">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39">
         <v>52</v>
       </c>
@@ -4969,7 +4789,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="39">
         <v>53</v>
       </c>
@@ -4995,7 +4815,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" hidden="1">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39">
         <v>54</v>
       </c>
@@ -5021,7 +4841,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="39">
         <v>55</v>
       </c>
@@ -5047,7 +4867,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" hidden="1">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39">
         <v>56</v>
       </c>
@@ -5073,7 +4893,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="39">
         <v>57</v>
       </c>
@@ -5099,7 +4919,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" hidden="1">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39">
         <v>58</v>
       </c>
@@ -5125,7 +4945,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="39">
         <v>59</v>
       </c>
@@ -5151,7 +4971,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" hidden="1">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39">
         <v>60</v>
       </c>

--- a/Invoice/COM1020924.xlsx
+++ b/Invoice/COM1020924.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\SEG\docs\Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{C091C1FB-A1D0-6244-8E00-B94A6F2CD182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{C27ED57D-2CC2-D742-A1F9-828B2D03CB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="163">
   <si>
     <t>COMMERCIAL INVOICE</t>
   </si>
@@ -90,9 +90,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Total Books</t>
-  </si>
-  <si>
     <t>Unit (Rp.)</t>
   </si>
   <si>
@@ -523,6 +520,12 @@
   </si>
   <si>
     <t>COM1020924</t>
+  </si>
+  <si>
+    <t>Total Items</t>
+  </si>
+  <si>
+    <t>Courier Charge</t>
   </si>
 </sst>
 </file>
@@ -1020,13 +1023,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>166714</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1356518</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>136102</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1064,14 +1067,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2336336</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>87966</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>87968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1404,10 +1407,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75:E104"/>
+    <sheetView tabSelected="1" topLeftCell="E49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1454,7 +1457,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>1</v>
@@ -1478,11 +1481,11 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
@@ -1513,7 +1516,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="52"/>
@@ -1535,7 +1538,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="52"/>
@@ -1564,19 +1567,19 @@
         <v>11</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="20">
         <v>9781599666327</v>
@@ -1585,17 +1588,17 @@
         <v>1</v>
       </c>
       <c r="E15" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="19">
         <f>(E15)-(E15*F15)*(D15)</f>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="40">
         <v>9781599666334</v>
@@ -1604,17 +1607,17 @@
         <v>1</v>
       </c>
       <c r="E16" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="19">
         <f t="shared" ref="G16:G79" si="0">(E16)-(E16*F16)*(D16)</f>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="40">
         <v>9781599666341</v>
@@ -1623,17 +1626,17 @@
         <v>1</v>
       </c>
       <c r="E17" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B18" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="40">
         <v>9781599666358</v>
@@ -1642,17 +1645,17 @@
         <v>1</v>
       </c>
       <c r="E18" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F18" s="49"/>
       <c r="G18" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="40">
         <v>9781599666365</v>
@@ -1661,17 +1664,17 @@
         <v>1</v>
       </c>
       <c r="E19" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="40">
         <v>9781599666372</v>
@@ -1680,17 +1683,17 @@
         <v>1</v>
       </c>
       <c r="E20" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="40">
         <v>9781599666389</v>
@@ -1699,17 +1702,17 @@
         <v>1</v>
       </c>
       <c r="E21" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="40">
         <v>9781599666396</v>
@@ -1718,17 +1721,17 @@
         <v>1</v>
       </c>
       <c r="E22" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F22" s="49"/>
       <c r="G22" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="40">
         <v>9781599666402</v>
@@ -1737,17 +1740,17 @@
         <v>1</v>
       </c>
       <c r="E23" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="40">
         <v>9781599666419</v>
@@ -1756,17 +1759,17 @@
         <v>1</v>
       </c>
       <c r="E24" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F24" s="49"/>
       <c r="G24" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="40">
         <v>9781599666426</v>
@@ -1775,17 +1778,17 @@
         <v>1</v>
       </c>
       <c r="E25" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="40">
         <v>9781599666433</v>
@@ -1794,17 +1797,17 @@
         <v>1</v>
       </c>
       <c r="E26" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="40">
         <v>9781599666440</v>
@@ -1813,17 +1816,17 @@
         <v>1</v>
       </c>
       <c r="E27" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="40">
         <v>9781599666457</v>
@@ -1832,17 +1835,17 @@
         <v>1</v>
       </c>
       <c r="E28" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F28" s="49"/>
       <c r="G28" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="40">
         <v>9781599666464</v>
@@ -1851,17 +1854,17 @@
         <v>1</v>
       </c>
       <c r="E29" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F29" s="49"/>
       <c r="G29" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="40">
         <v>9781599666471</v>
@@ -1870,17 +1873,17 @@
         <v>1</v>
       </c>
       <c r="E30" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F30" s="49"/>
       <c r="G30" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="40">
         <v>9781599666488</v>
@@ -1889,17 +1892,17 @@
         <v>1</v>
       </c>
       <c r="E31" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="40">
         <v>9781599666495</v>
@@ -1908,17 +1911,17 @@
         <v>1</v>
       </c>
       <c r="E32" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F32" s="49"/>
       <c r="G32" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="40">
         <v>9781599666501</v>
@@ -1927,17 +1930,17 @@
         <v>1</v>
       </c>
       <c r="E33" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F33" s="49"/>
       <c r="G33" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="40">
         <v>9781599666518</v>
@@ -1946,17 +1949,17 @@
         <v>1</v>
       </c>
       <c r="E34" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F34" s="49"/>
       <c r="G34" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="40">
         <v>9781599666525</v>
@@ -1965,17 +1968,17 @@
         <v>1</v>
       </c>
       <c r="E35" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F35" s="49"/>
       <c r="G35" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="40">
         <v>9781599666532</v>
@@ -1984,17 +1987,17 @@
         <v>1</v>
       </c>
       <c r="E36" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F36" s="49"/>
       <c r="G36" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="40">
         <v>9781599666549</v>
@@ -2003,17 +2006,17 @@
         <v>1</v>
       </c>
       <c r="E37" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F37" s="49"/>
       <c r="G37" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="40">
         <v>9781599666556</v>
@@ -2022,17 +2025,17 @@
         <v>1</v>
       </c>
       <c r="E38" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F38" s="49"/>
       <c r="G38" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="40">
         <v>9781599666563</v>
@@ -2041,17 +2044,17 @@
         <v>1</v>
       </c>
       <c r="E39" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F39" s="49"/>
       <c r="G39" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="40">
         <v>9781599666570</v>
@@ -2060,17 +2063,17 @@
         <v>1</v>
       </c>
       <c r="E40" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F40" s="49"/>
       <c r="G40" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="40">
         <v>9781599666587</v>
@@ -2079,17 +2082,17 @@
         <v>1</v>
       </c>
       <c r="E41" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F41" s="49"/>
       <c r="G41" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="40">
         <v>9781599666594</v>
@@ -2098,17 +2101,17 @@
         <v>1</v>
       </c>
       <c r="E42" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F42" s="49"/>
       <c r="G42" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="40">
         <v>9781599666600</v>
@@ -2117,17 +2120,17 @@
         <v>1</v>
       </c>
       <c r="E43" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F43" s="49"/>
       <c r="G43" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="40">
         <v>9781599666617</v>
@@ -2136,17 +2139,17 @@
         <v>1</v>
       </c>
       <c r="E44" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F44" s="49"/>
       <c r="G44" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" s="40">
         <v>9781599666624</v>
@@ -2155,17 +2158,17 @@
         <v>1</v>
       </c>
       <c r="E45" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F45" s="49"/>
       <c r="G45" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="40">
         <v>9781599666631</v>
@@ -2174,17 +2177,17 @@
         <v>1</v>
       </c>
       <c r="E46" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F46" s="49"/>
       <c r="G46" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="40">
         <v>9781599666648</v>
@@ -2193,17 +2196,17 @@
         <v>1</v>
       </c>
       <c r="E47" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F47" s="49"/>
       <c r="G47" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B48" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="40">
         <v>9781599666655</v>
@@ -2212,17 +2215,17 @@
         <v>1</v>
       </c>
       <c r="E48" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F48" s="49"/>
       <c r="G48" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="40">
         <v>9781599666662</v>
@@ -2231,17 +2234,17 @@
         <v>1</v>
       </c>
       <c r="E49" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F49" s="49"/>
       <c r="G49" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="40">
         <v>9781599666679</v>
@@ -2250,17 +2253,17 @@
         <v>1</v>
       </c>
       <c r="E50" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F50" s="49"/>
       <c r="G50" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51" s="40">
         <v>9781599666686</v>
@@ -2269,17 +2272,17 @@
         <v>1</v>
       </c>
       <c r="E51" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F51" s="49"/>
       <c r="G51" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" s="40">
         <v>9781599666693</v>
@@ -2288,17 +2291,17 @@
         <v>1</v>
       </c>
       <c r="E52" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F52" s="49"/>
       <c r="G52" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" s="40">
         <v>9781599666709</v>
@@ -2307,17 +2310,17 @@
         <v>1</v>
       </c>
       <c r="E53" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F53" s="49"/>
       <c r="G53" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" s="40">
         <v>9781599666716</v>
@@ -2326,17 +2329,17 @@
         <v>1</v>
       </c>
       <c r="E54" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F54" s="49"/>
       <c r="G54" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" s="40">
         <v>9781599666723</v>
@@ -2345,17 +2348,17 @@
         <v>1</v>
       </c>
       <c r="E55" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F55" s="49"/>
       <c r="G55" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56" s="40">
         <v>9781599666730</v>
@@ -2364,17 +2367,17 @@
         <v>1</v>
       </c>
       <c r="E56" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F56" s="49"/>
       <c r="G56" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="40">
         <v>9781599666747</v>
@@ -2383,17 +2386,17 @@
         <v>1</v>
       </c>
       <c r="E57" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F57" s="49"/>
       <c r="G57" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" s="40">
         <v>9781599666754</v>
@@ -2402,17 +2405,17 @@
         <v>1</v>
       </c>
       <c r="E58" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F58" s="49"/>
       <c r="G58" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" s="40">
         <v>9781599666761</v>
@@ -2421,17 +2424,17 @@
         <v>1</v>
       </c>
       <c r="E59" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F59" s="49"/>
       <c r="G59" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C60" s="40">
         <v>9781599666778</v>
@@ -2440,17 +2443,17 @@
         <v>1</v>
       </c>
       <c r="E60" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F60" s="49"/>
       <c r="G60" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="40">
         <v>9781599666785</v>
@@ -2459,17 +2462,17 @@
         <v>1</v>
       </c>
       <c r="E61" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F61" s="49"/>
       <c r="G61" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" s="40">
         <v>9781599666792</v>
@@ -2478,17 +2481,17 @@
         <v>1</v>
       </c>
       <c r="E62" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F62" s="49"/>
       <c r="G62" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C63" s="40">
         <v>9781599666808</v>
@@ -2497,17 +2500,17 @@
         <v>1</v>
       </c>
       <c r="E63" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F63" s="49"/>
       <c r="G63" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C64" s="40">
         <v>9781599666815</v>
@@ -2516,17 +2519,17 @@
         <v>1</v>
       </c>
       <c r="E64" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F64" s="49"/>
       <c r="G64" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C65" s="40">
         <v>9781599666822</v>
@@ -2535,17 +2538,17 @@
         <v>1</v>
       </c>
       <c r="E65" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F65" s="49"/>
       <c r="G65" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C66" s="40">
         <v>9781599666839</v>
@@ -2554,17 +2557,17 @@
         <v>1</v>
       </c>
       <c r="E66" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F66" s="49"/>
       <c r="G66" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C67" s="40">
         <v>9781599666846</v>
@@ -2573,17 +2576,17 @@
         <v>1</v>
       </c>
       <c r="E67" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F67" s="49"/>
       <c r="G67" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C68" s="40">
         <v>9781599666853</v>
@@ -2592,17 +2595,17 @@
         <v>1</v>
       </c>
       <c r="E68" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F68" s="49"/>
       <c r="G68" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C69" s="40">
         <v>9781599666860</v>
@@ -2611,17 +2614,17 @@
         <v>1</v>
       </c>
       <c r="E69" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F69" s="49"/>
       <c r="G69" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C70" s="40">
         <v>9781599666877</v>
@@ -2630,17 +2633,17 @@
         <v>1</v>
       </c>
       <c r="E70" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F70" s="49"/>
       <c r="G70" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C71" s="40">
         <v>9781599666884</v>
@@ -2649,17 +2652,17 @@
         <v>1</v>
       </c>
       <c r="E71" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F71" s="49"/>
       <c r="G71" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C72" s="40">
         <v>9781599666891</v>
@@ -2668,17 +2671,17 @@
         <v>1</v>
       </c>
       <c r="E72" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F72" s="49"/>
       <c r="G72" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C73" s="47">
         <v>9781599666907</v>
@@ -2687,17 +2690,17 @@
         <v>1</v>
       </c>
       <c r="E73" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F73" s="49"/>
       <c r="G73" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C74" s="40">
         <v>9781599666914</v>
@@ -2706,17 +2709,17 @@
         <v>1</v>
       </c>
       <c r="E74" s="19">
-        <v>39293</v>
+        <v>39370</v>
       </c>
       <c r="F74" s="49"/>
       <c r="G74" s="19">
         <f t="shared" si="0"/>
-        <v>39293</v>
+        <v>39370</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C75" s="40">
         <v>9781599661667</v>
@@ -2735,7 +2738,7 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C76" s="40">
         <v>9781599661698</v>
@@ -2754,7 +2757,7 @@
     </row>
     <row r="77" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B77" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C77" s="40">
         <v>9781599661728</v>
@@ -2773,7 +2776,7 @@
     </row>
     <row r="78" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B78" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C78" s="40">
         <v>9781599661759</v>
@@ -2792,7 +2795,7 @@
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C79" s="40">
         <v>9781599661780</v>
@@ -2811,7 +2814,7 @@
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C80" s="40">
         <v>9781599661810</v>
@@ -2824,13 +2827,13 @@
       </c>
       <c r="F80" s="49"/>
       <c r="G80" s="19">
-        <f t="shared" ref="G80:G104" si="1">(E80)-(E80*F80)*(D80)</f>
+        <f t="shared" ref="G80:G105" si="1">(E80)-(E80*F80)*(D80)</f>
         <v>45105</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C81" s="40">
         <v>9781599661872</v>
@@ -2849,7 +2852,7 @@
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C82" s="40">
         <v>9781599661841</v>
@@ -2868,7 +2871,7 @@
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C83" s="40">
         <v>9781599661902</v>
@@ -2887,7 +2890,7 @@
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" s="40">
         <v>9781599661933</v>
@@ -2906,7 +2909,7 @@
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C85" s="40">
         <v>9781599661964</v>
@@ -2925,7 +2928,7 @@
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C86" s="40">
         <v>9781599661995</v>
@@ -2944,7 +2947,7 @@
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C87" s="40">
         <v>9781599662022</v>
@@ -2963,7 +2966,7 @@
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C88" s="40">
         <v>9781599662053</v>
@@ -2982,7 +2985,7 @@
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" s="40">
         <v>9781599662114</v>
@@ -3001,7 +3004,7 @@
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C90" s="40">
         <v>9781599662145</v>
@@ -3020,7 +3023,7 @@
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C91" s="40">
         <v>9781599662176</v>
@@ -3039,7 +3042,7 @@
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C92" s="40">
         <v>9781599662084</v>
@@ -3058,7 +3061,7 @@
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C93" s="40">
         <v>9781599662206</v>
@@ -3077,7 +3080,7 @@
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C94" s="40">
         <v>9781599662237</v>
@@ -3096,7 +3099,7 @@
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C95" s="40">
         <v>9781599662268</v>
@@ -3115,7 +3118,7 @@
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C96" s="40">
         <v>9781599662299</v>
@@ -3134,7 +3137,7 @@
     </row>
     <row r="97" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B97" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C97" s="40">
         <v>9781599662329</v>
@@ -3153,7 +3156,7 @@
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C98" s="40">
         <v>9781599662350</v>
@@ -3172,7 +3175,7 @@
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C99" s="40">
         <v>9781599662381</v>
@@ -3191,7 +3194,7 @@
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C100" s="40">
         <v>9781599662473</v>
@@ -3210,7 +3213,7 @@
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C101" s="40">
         <v>9781599662411</v>
@@ -3229,7 +3232,7 @@
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C102" s="40">
         <v>9781599662503</v>
@@ -3248,7 +3251,7 @@
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C103" s="40">
         <v>9781599662534</v>
@@ -3267,7 +3270,7 @@
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C104" s="40">
         <v>9781599662442</v>
@@ -3280,72 +3283,86 @@
       </c>
       <c r="F104" s="49"/>
       <c r="G104" s="19">
+        <f t="shared" ref="G104" si="2">(E104)-(E104*F104)*(D104)</f>
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="40">
+        <v>7000000000064</v>
+      </c>
+      <c r="D105" s="20">
+        <v>1</v>
+      </c>
+      <c r="E105" s="19">
+        <v>1348500</v>
+      </c>
+      <c r="F105" s="49"/>
+      <c r="G105" s="19">
         <f t="shared" si="1"/>
-        <v>45105</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B105" s="35"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="37"/>
+        <v>1348500</v>
+      </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E106" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" s="29" t="s">
+      <c r="B106" s="35"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="37"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E107" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F107" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="30" t="s">
+      <c r="G107" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E107" s="31">
-        <f>COUNT(D15:D105)</f>
-        <v>90</v>
-      </c>
-      <c r="F107" s="32">
-        <f>SUM(D15:D105)</f>
-        <v>90</v>
-      </c>
-      <c r="G107" s="33">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E108" s="31">
+        <f>COUNT(D15:D106)</f>
+        <v>91</v>
+      </c>
+      <c r="F108" s="32">
+        <f>SUM(D15:D106)</f>
+        <v>91</v>
+      </c>
+      <c r="G108" s="33">
         <f>SUM(G15:G105)</f>
-        <v>3710730</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B109" s="22"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="24"/>
+        <v>5063850</v>
+      </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B110" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="4"/>
-      <c r="G110" s="26"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="24"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B111" s="27"/>
+      <c r="B111" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="E111" s="4"/>
       <c r="G111" s="26"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B112" s="28" t="s">
-        <v>13</v>
-      </c>
+      <c r="B112" s="27"/>
       <c r="E112" s="4"/>
       <c r="G112" s="26"/>
     </row>
-    <row r="113" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="27"/>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="28" t="s">
+        <v>13</v>
+      </c>
       <c r="E113" s="4"/>
       <c r="G113" s="26"/>
     </row>
@@ -3354,34 +3371,39 @@
       <c r="E114" s="4"/>
       <c r="G114" s="26"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="27" t="s">
+    <row r="115" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="27"/>
+      <c r="E115" s="4"/>
+      <c r="G115" s="26"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B116" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="26"/>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="27"/>
-      <c r="E116" s="4"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
       <c r="G116" s="26"/>
     </row>
-    <row r="117" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="54" t="s">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B117" s="27"/>
+      <c r="E117" s="4"/>
+      <c r="G117" s="26"/>
+    </row>
+    <row r="118" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C117" s="54"/>
-      <c r="D117" s="54"/>
-      <c r="E117" s="54"/>
-      <c r="F117" s="54"/>
-      <c r="G117" s="54"/>
-    </row>
-    <row r="118" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H121"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="54"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="54"/>
+    </row>
+    <row r="119" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H122"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3395,7 +3417,7 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D10:G12"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B118:G118"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{D1A7B311-42A7-4137-ACCF-9B7E4DB486E9}"/>
@@ -3425,16 +3447,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>120</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3442,25 +3464,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="40">
         <v>9781599661933</v>
       </c>
       <c r="D2" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="F2" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G2" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3468,25 +3490,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="39">
         <v>9781599661957</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G3" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3494,25 +3516,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="40">
         <v>9781599661667</v>
       </c>
       <c r="D4" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="F4" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G4" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3520,25 +3542,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="39">
         <v>9781599661681</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G5" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3546,25 +3568,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="40">
         <v>9781599661698</v>
       </c>
       <c r="D6" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="F6" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G6" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3572,25 +3594,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="39">
         <v>9781599661711</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G7" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3598,25 +3620,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="40">
         <v>9781599661728</v>
       </c>
       <c r="D8" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="F8" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G8" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3624,25 +3646,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="39">
         <v>9781599661742</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G9" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3650,25 +3672,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="40">
         <v>9781599661759</v>
       </c>
       <c r="D10" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="F10" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G10" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3676,25 +3698,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="39">
         <v>9781599661773</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G11" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3702,25 +3724,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="40">
         <v>9781599661780</v>
       </c>
       <c r="D12" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="F12" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G12" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3728,25 +3750,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="39">
         <v>9781599661803</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G13" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3754,25 +3776,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="40">
         <v>9781599661810</v>
       </c>
       <c r="D14" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="F14" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G14" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3780,25 +3802,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="39">
         <v>9781599661834</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G15" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3806,25 +3828,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="40">
         <v>9781599661872</v>
       </c>
       <c r="D16" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="F16" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G16" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3832,25 +3854,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="39">
         <v>9781599661896</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G17" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3858,25 +3880,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <v>9781599661841</v>
       </c>
       <c r="D18" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="F18" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G18" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3884,25 +3906,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="39">
         <v>9781599661865</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G19" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3910,25 +3932,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="40">
         <v>9781599661902</v>
       </c>
       <c r="D20" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="F20" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G20" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3936,25 +3958,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="39">
         <v>9781599661926</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G21" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3962,25 +3984,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="40">
         <v>9781599662237</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G22" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3988,25 +4010,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="39">
         <v>9781599662251</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G23" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -4014,25 +4036,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="40">
         <v>9781599661964</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E24" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G24" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4040,25 +4062,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" s="39">
         <v>9781599661988</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E25" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G25" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -4066,25 +4088,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="40">
         <v>9781599661995</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F26" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G26" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4092,25 +4114,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="39">
         <v>9781599662015</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G27" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -4118,25 +4140,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="40">
         <v>9781599662022</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E28" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G28" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4144,25 +4166,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="39">
         <v>9781599662046</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G29" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -4170,25 +4192,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <v>9781599662053</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E30" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G30" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4196,25 +4218,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="39">
         <v>9781599662077</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E31" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G31" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -4222,25 +4244,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="40">
         <v>9781599662114</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E32" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G32" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4248,25 +4270,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C33" s="39">
         <v>9781599662138</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E33" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G33" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -4274,25 +4296,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="40">
         <v>9781599662145</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G34" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4300,25 +4322,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="39">
         <v>9781599662169</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G35" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -4326,25 +4348,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="40">
         <v>9781599662176</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E36" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G36" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4352,25 +4374,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C37" s="39">
         <v>9781599662190</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E37" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G37" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -4378,25 +4400,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="40">
         <v>9781599662084</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E38" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F38" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G38" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4404,25 +4426,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" s="39">
         <v>9781599662107</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G39" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -4430,25 +4452,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="40">
         <v>9781599662206</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E40" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G40" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4456,25 +4478,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C41" s="39">
         <v>9781599662220</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E41" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G41" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -4482,25 +4504,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="40">
         <v>9781599662442</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E42" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F42" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G42" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4508,25 +4530,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C43" s="39">
         <v>9781599662466</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E43" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G43" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -4534,25 +4556,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="40">
         <v>9781599662268</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E44" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G44" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4560,25 +4582,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C45" s="39">
         <v>9781599662282</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E45" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F45" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G45" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -4586,25 +4608,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="40">
         <v>9781599662299</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E46" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F46" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G46" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4612,25 +4634,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C47" s="39">
         <v>9781599662312</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E47" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F47" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G47" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -4638,25 +4660,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="40">
         <v>9781599662329</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E48" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G48" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4664,25 +4686,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C49" s="39">
         <v>9781599662343</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E49" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F49" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G49" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -4690,25 +4712,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="40">
         <v>9781599662350</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E50" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F50" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G50" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H50" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4716,25 +4738,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C51" s="39">
         <v>9781599662374</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E51" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F51" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G51" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -4742,25 +4764,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="40">
         <v>9781599662381</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E52" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F52" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G52" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H52" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4768,25 +4790,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C53" s="39">
         <v>9781599662404</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E53" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G53" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -4794,25 +4816,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="40">
         <v>9781599662473</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E54" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G54" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H54" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4820,25 +4842,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C55" s="39">
         <v>9781599662497</v>
       </c>
       <c r="D55" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E55" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F55" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G55" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H55" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -4846,25 +4868,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="40">
         <v>9781599662411</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E56" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G56" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H56" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4872,25 +4894,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C57" s="39">
         <v>9781599662435</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F57" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G57" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -4898,25 +4920,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" s="40">
         <v>9781599662503</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E58" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G58" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4924,25 +4946,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C59" s="39">
         <v>9781599662527</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E59" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F59" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G59" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H59" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -4950,25 +4972,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="40">
         <v>9781599662534</v>
       </c>
       <c r="D60" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E60" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F60" s="39" t="s">
-        <v>125</v>
-      </c>
       <c r="G60" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H60" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4976,25 +4998,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C61" s="39">
         <v>9781599662558</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E61" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F61" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="G61" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H61" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
